--- a/biology/Botanique/Menispermaceae/Menispermaceae.xlsx
+++ b/biology/Botanique/Menispermaceae/Menispermaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Ménispermacées est une famille de plantes dicotylédones. Selon Watson &amp; Dallwitz, elle comprend 520 espèces réparties en 75 genres.
 Ce sont, pour la plupart, des lianes ou des arbustes rampants des régions tempérées chaudes à tropicales.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Menispermum dérivé du grec μενε / mene, la lune, et σπέρμα / sperma, graines, en référence à la forme incurvée des graines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Menispermum dérivé du grec μενε / mene, la lune, et σπέρμα / sperma, graines, en référence à la forme incurvée des graines.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (23 avr. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (23 avr. 2010) :
 Abuta
 Albertisia
 Anamirta
@@ -605,7 +621,7 @@
 Tiliacora
 Tinospora
 Triclisia
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 Abuta
 Albertisia
 Anamirta
@@ -679,7 +695,7 @@
 Tinospora
 Triclisia
 Ungulipetalum
-Selon DELTA Angio           (23 avr. 2010)[4] :
+Selon DELTA Angio           (23 avr. 2010) :
 Abuta
 Albertisia
 Anamirta
@@ -751,7 +767,7 @@
 Tinospora
 Triclisia
 Ungulipetalum
-Selon ITIS      (23 avr. 2010)[5] :
+Selon ITIS      (23 avr. 2010) :
 Calycocarpum  (Nutt.) Spach
 Chondrodendron  Ruiz &amp; Pavon
 Cissampelos  L.
